--- a/data/trans_dic/P2_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P2_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se encuentra en su vivienda habitual</t>
+          <t>Población que se encuentra en su vivienda habitual (tasa de respuesta: 99,98%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>94,56%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>78,82%</t>
+          <t>74,28%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>83,72%</t>
+          <t>74,36%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>80,84%</t>
+          <t>70,68%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>93,98%</t>
+          <t>98,69%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>91,99%</t>
+          <t>94,73%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>87,06%</t>
+          <t>94,66%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>82,93%</t>
+          <t>94,97%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>94,25%</t>
+          <t>95,51%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>85,86%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>85,61%</t>
+          <t>97,19%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>82,03%</t>
+          <t>84,98%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>85,13%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>83,53%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>99,4%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>87,24; 97,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>53,85; 93,45</t>
+          <t>38,08; 97,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>60,96; 93,29</t>
+          <t>38,51; 96,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>54,3; 92,75</t>
+          <t>32,97; 97,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>88,68; 97,59</t>
+          <t>92,04; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>83,05; 96,89</t>
+          <t>86,21; 98,39</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>62,19; 96,58</t>
+          <t>86,05; 98,47</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>49,79; 97,71</t>
+          <t>87,07; 98,51</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>90,38; 96,92</t>
+          <t>88,37; 98,78</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>69,38; 93,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>70,1; 93,5</t>
+          <t>92,65; 99,17</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>60,64; 93,88</t>
+          <t>58,35; 95,98</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>58,59; 96,19</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>53,2; 96,41</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>96,87; 100,0</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>97,56%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>94,59%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>93,94%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>92,03%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>95,61%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>95,6%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>94,56%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>91,6%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>92,18%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>95,79%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
           <t>96,55%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>96,14%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>96,07%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>93,81%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>94,32%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>93,89%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>90,42%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>90,03%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>95,38%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>94,97%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>93,25%</t>
-        </is>
-      </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>92,0%</t>
+          <t>94,58%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>92,76%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>92,1%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>95,7%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>93,55; 98,39</t>
+          <t>93,56; 99,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>93,15; 97,91</t>
+          <t>89,6; 97,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>92,97; 98,08</t>
+          <t>88,21; 96,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>89,61; 96,46</t>
+          <t>84,91; 95,77</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>89,06; 97,01</t>
+          <t>90,03; 98,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>89,43; 96,39</t>
+          <t>91,27; 97,9</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>84,71; 94,03</t>
+          <t>90,2; 97,29</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>82,94; 93,88</t>
+          <t>86,87; 95,29</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>92,29; 96,97</t>
+          <t>87,53; 95,78</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>92,33; 96,65</t>
+          <t>91,5; 98,18</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>89,89; 95,44</t>
+          <t>94,44; 98,02</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>88,15; 94,32</t>
+          <t>91,72; 96,77</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>89,26; 95,25</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>87,9; 94,66</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>92,53; 97,51</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>92,04%</t>
+          <t>95,11%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>92,2%</t>
+          <t>95,06%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>92,61%</t>
+          <t>92,54%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>92,81%</t>
+          <t>93,25%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>96,27%</t>
+          <t>95,89%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>95,28%</t>
+          <t>96,49%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>94,96%</t>
+          <t>96,33%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>93,08%</t>
+          <t>96,31%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>94,32%</t>
+          <t>94,31%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>93,86%</t>
+          <t>94,53%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>93,86%</t>
+          <t>95,88%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>92,95%</t>
+          <t>95,78%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>94,61%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>93,82%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>95,17%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1104,84 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>87,47; 95,31</t>
+          <t>89,25; 97,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>83,46; 95,83</t>
+          <t>88,95; 97,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>87,62; 95,54</t>
+          <t>86,42; 96,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>88,11; 95,95</t>
+          <t>87,27; 96,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>92,96; 98,11</t>
+          <t>90,66; 98,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>92,15; 97,49</t>
+          <t>92,78; 98,68</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>91,8; 97,37</t>
+          <t>91,87; 98,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>89,31; 96,21</t>
+          <t>92,69; 98,74</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>91,6; 96,14</t>
+          <t>89,43; 97,01</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>89,63; 96,07</t>
+          <t>89,81; 97,38</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>91,09; 95,83</t>
+          <t>92,77; 97,67</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>89,89; 95,29</t>
+          <t>92,64; 97,61</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>91,5; 96,87</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>90,79; 96,49</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>91,62; 97,31</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>94,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>91,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>93,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>91,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>94,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>94,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>91,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>89,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>94,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>92,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>92,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>90,5%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1274,1725 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>92,57; 96,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>86,17; 95,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>88,6; 95,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>84,93; 94,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>92,07; 96,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>91,53; 95,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>85,73; 94,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>79,27; 93,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>93,11; 95,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>90,09; 94,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>89,19; 94,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>86,0; 92,91</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>96,97%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>91,83%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>90,72%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>89,36%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>96,23%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>95,85%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>95,31%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>93,99%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>93,52%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>96,15%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>96,37%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>93,7%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>92,44%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>91,49%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>96,19%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>94,7; 98,48</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>82,5; 95,69</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>81,9; 94,55</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>78,95; 94,06</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>93,16; 98,17</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>93,61; 97,52</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>92,6; 97,06</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>91,47; 96,31</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>90,6; 95,9</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>93,83; 97,86</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>94,83; 97,58</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>88,76; 95,71</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>88,1; 94,72</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>85,16; 94,0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>94,41; 97,49</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se encuentra en su vivienda habitual (tasa de respuesta: 99,98%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>103347</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>95735</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>78422</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>80671</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>175304</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>111599</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>134867</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>109688</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>116898</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>213971</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>214946</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>230601</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>188111</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>197568</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>389275</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>49080; 125098</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>40613; 102234</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>37630; 110704</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>163499; 177635</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>101558; 115907</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>122600; 140290</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>100562; 113781</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>108154; 120895</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>204893; 219326</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>158350; 260440</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>129460; 212538</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>125840; 228034</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>379345; 391606</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>142.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>144.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>172.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>170.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>166.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>167.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>173.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>318.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>312.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>307.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>306.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>317.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>357093</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>406259</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>353479</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>367635</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>494050</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>373433</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>439218</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>348887</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>345882</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>473884</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>730526</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>845477</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>702366</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>713516</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>967935</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>342441; 363831</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>384794; 418858</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>331887; 364775</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>339226; 382612</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>465219; 508199</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>356521; 382430</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>418941; 451872</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>330881; 362933</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>328414; 359389</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>452627; 485670</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>714598; 741679</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>819926; 865039</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>675857; 721161</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>680976; 733362</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>935871; 986181</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>161.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>161.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>161.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>159.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>159.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>277.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>277.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>274.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>273.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>276.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>271952</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>316456</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>261322</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>256791</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>338763</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>347011</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>412675</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>331919</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>308805</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>377701</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>618963</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>729131</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>593242</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>565596</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>716464</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>255173; 279751</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>296097; 325309</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>244042; 272101</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>240333; 266134</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>320265; 348208</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>333662; 354877</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>393571; 421391</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>319457; 340301</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>292825; 317658</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>358815; 389073</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>598854; 630487</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>705296; 743115</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>573732; 607411</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>547303; 581693</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>689690; 732567</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>301.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>294.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>290.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>289.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>299.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>382.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>380.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>376.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>375.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>384.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>683.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>674.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>666.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>664.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>683.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>732391</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>818449</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>693225</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>705096</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1008118</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>832043</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>986759</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>790495</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>771584</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1065556</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>1564435</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1805209</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>1483719</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>1476682</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>2073673</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>715226; 743800</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>735280; 852862</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>625816; 722481</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>622925; 742115</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>975953; 1028492</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>812579; 846556</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>958766; 1004954</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>769329; 810031</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>747509; 791185</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1039801; 1084442</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1539402; 1583988</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1710037; 1843973</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>1414158; 1520334</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>1374545; 1517237</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>2035402; 2101628</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
